--- a/Bibsam_tidskriftslistor/scifree_data_rsc_fullyoa.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_rsc_fullyoa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_49586995531ED54E2135AA0D205D970814DF8E24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{794B465F-3C8A-4F89-8874-B16618E69A66}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_49586995531ED54E2135AA0D205D970814DF8E24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D67079D-6315-4943-A63D-FA1FF53D6BED}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -47,15 +47,6 @@
   </si>
   <si>
     <t>CC-BY, CC-BY-NC</t>
-  </si>
-  <si>
-    <t>Chemical Science</t>
-  </si>
-  <si>
-    <t>2041-6539</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1039/2041-6539/2010</t>
   </si>
   <si>
     <t>RSC Advances</t>
@@ -285,8 +276,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{025C3C23-87BA-40DE-B00E-4BD58DA68020}" name="Table1" displayName="Table1" ref="A1:G21" totalsRowShown="0">
-  <autoFilter ref="A1:G21" xr:uid="{025C3C23-87BA-40DE-B00E-4BD58DA68020}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{025C3C23-87BA-40DE-B00E-4BD58DA68020}" name="Table1" displayName="Table1" ref="A1:G20" totalsRowShown="0">
+  <autoFilter ref="A1:G20" xr:uid="{025C3C23-87BA-40DE-B00E-4BD58DA68020}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{36AF0596-5827-491E-A84E-1174BC529D41}" name="Imprint"/>
     <tableColumn id="2" xr3:uid="{843880D1-5B50-4D89-AFD0-51FD7CE03A2C}" name="ISSN Electronic"/>
@@ -563,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2E9D1D-1E97-4279-B829-8D77F1C9917F}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,16 +599,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -637,7 +628,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -657,7 +648,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -677,7 +668,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -697,7 +688,7 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -717,7 +708,7 @@
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -737,7 +728,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -757,7 +748,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
@@ -777,7 +768,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -791,13 +782,13 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -808,16 +799,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
@@ -828,16 +819,16 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -857,7 +848,7 @@
         <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -877,7 +868,7 @@
         <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
@@ -897,7 +888,7 @@
         <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
@@ -917,7 +908,7 @@
         <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -937,7 +928,7 @@
         <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
@@ -957,7 +948,7 @@
         <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -977,29 +968,9 @@
         <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
         <v>8</v>
       </c>
     </row>
